--- a/biology/Zoologie/Eider_(oiseau)/Eider_(oiseau).xlsx
+++ b/biology/Zoologie/Eider_(oiseau)/Eider_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les eiders sont de grands canards migrateurs de la famille des anatidae. Leur duvet est recherché, en raison de ses qualités exceptionnelles d'isolation, comme rembourrage d'objets de couchage. Il est notamment cueilli en Islande et au Groenland et l'est actuellement dans l'estuaire du Saint-Laurent au Québec.[réf. nécessaire] La récolte est complexe, car il s'agit des plumes récoltées dans les nids ; le coût de ce duvet est un des plus cher au monde[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les eiders sont de grands canards migrateurs de la famille des anatidae. Leur duvet est recherché, en raison de ses qualités exceptionnelles d'isolation, comme rembourrage d'objets de couchage. Il est notamment cueilli en Islande et au Groenland et l'est actuellement dans l'estuaire du Saint-Laurent au Québec.[réf. nécessaire] La récolte est complexe, car il s'agit des plumes récoltées dans les nids ; le coût de ce duvet est un des plus cher au monde.
 Les espèces survivantes vivent sous les latitudes tempérées de l'hémisphère nord.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eider commun Somateria mollissima
 Eider à lunettes Somateria fischeri
@@ -548,9 +562,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme edre (même étymon que eider) au sens de « duvet » est attesté vers 1200, il procède directement de l'ancien scandinave æðr. En revanche, la forme eider, attestée seulement au XVIIe siècle est un emprunt, par l'intermédiaire du latin scientifique, à l'islandais aedur[2] (comprendre æður). Il procède lui-même du vieux norrois æðr. On retrouve cet élément scandinave dans le mot édredon qui est issu du danois ederdun parent de l'islandais æðardúnn mot-à-mot « duvet d'eider ». Le mot duvet quant à lui est une altération inexpliquée du normand dunet, dumet, deunet « duvet (d'animal) », issu du vieux norrois dúnn « duvet, plume » + suffixe roman -et[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme edre (même étymon que eider) au sens de « duvet » est attesté vers 1200, il procède directement de l'ancien scandinave æðr. En revanche, la forme eider, attestée seulement au XVIIe siècle est un emprunt, par l'intermédiaire du latin scientifique, à l'islandais aedur (comprendre æður). Il procède lui-même du vieux norrois æðr. On retrouve cet élément scandinave dans le mot édredon qui est issu du danois ederdun parent de l'islandais æðardúnn mot-à-mot « duvet d'eider ». Le mot duvet quant à lui est une altération inexpliquée du normand dunet, dumet, deunet « duvet (d'animal) », issu du vieux norrois dúnn « duvet, plume » + suffixe roman -et.
 </t>
         </is>
       </c>
